--- a/HR_Data/tmp_LWP2_0019_MSBand_RR_raw_data_by_task.xlsx
+++ b/HR_Data/tmp_LWP2_0019_MSBand_RR_raw_data_by_task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29385" windowHeight="11415" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29385" windowHeight="13215" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
